--- a/inst/rawdata/locations/norway_locations.xlsx
+++ b/inst/rawdata/locations/norway_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrea/Documents/GitHub/fhidata/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzh\OneDrive - Folkehelseinstituttet\GitHub\fhidata\inst\rawdata\locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317BCF6-C36C-C540-AF36-33F08F316061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4ACF30-2863-4BEA-A6CC-1E25A7819ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="-23540" windowWidth="30740" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="-17295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6244" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="1287">
   <si>
     <t>year_start</t>
   </si>
@@ -3824,6 +3824,63 @@
   </si>
   <si>
     <t>Hustadvika</t>
+  </si>
+  <si>
+    <t>municip9999</t>
+  </si>
+  <si>
+    <t>Ukjent kommune</t>
+  </si>
+  <si>
+    <t>county99</t>
+  </si>
+  <si>
+    <t>Ukjent fylke</t>
+  </si>
+  <si>
+    <t>region9</t>
+  </si>
+  <si>
+    <t>Ukjent region</t>
+  </si>
+  <si>
+    <t>faregion9</t>
+  </si>
+  <si>
+    <t>municip2100</t>
+  </si>
+  <si>
+    <t>municip2111</t>
+  </si>
+  <si>
+    <t>Spitsbergen</t>
+  </si>
+  <si>
+    <t>county21</t>
+  </si>
+  <si>
+    <t>Utenfor fastlands-Norge</t>
+  </si>
+  <si>
+    <t>region0</t>
+  </si>
+  <si>
+    <t>faregion0</t>
+  </si>
+  <si>
+    <t>municip2121</t>
+  </si>
+  <si>
+    <t>municip2131</t>
+  </si>
+  <si>
+    <t>Bjørnøya</t>
+  </si>
+  <si>
+    <t>Hopen</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
   </si>
 </sst>
 </file>
@@ -4218,19 +4275,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L733"/>
+  <dimension ref="A1:L738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="166" workbookViewId="0">
-      <selection activeCell="L506" sqref="L506"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F739" sqref="F739"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="24.83203125" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1838</v>
       </c>
@@ -4303,7 +4361,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1838</v>
       </c>
@@ -4338,7 +4396,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -4373,7 +4431,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -4408,7 +4466,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1838</v>
       </c>
@@ -4443,7 +4501,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1838</v>
       </c>
@@ -4478,7 +4536,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1964</v>
       </c>
@@ -4513,7 +4571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1902</v>
       </c>
@@ -4548,7 +4606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1838</v>
       </c>
@@ -4583,7 +4641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1838</v>
       </c>
@@ -4618,7 +4676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1838</v>
       </c>
@@ -4653,7 +4711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1838</v>
       </c>
@@ -4688,7 +4746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1838</v>
       </c>
@@ -4723,7 +4781,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1838</v>
       </c>
@@ -4758,7 +4816,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1838</v>
       </c>
@@ -4793,7 +4851,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1838</v>
       </c>
@@ -4828,7 +4886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1838</v>
       </c>
@@ -4863,7 +4921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -4898,7 +4956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1838</v>
       </c>
@@ -4933,7 +4991,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1931</v>
       </c>
@@ -4968,7 +5026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1838</v>
       </c>
@@ -5003,7 +5061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1838</v>
       </c>
@@ -5038,7 +5096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1838</v>
       </c>
@@ -5073,7 +5131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1915</v>
       </c>
@@ -5108,7 +5166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1838</v>
       </c>
@@ -5143,7 +5201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1838</v>
       </c>
@@ -5178,7 +5236,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1966</v>
       </c>
@@ -5213,7 +5271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1838</v>
       </c>
@@ -5248,7 +5306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1838</v>
       </c>
@@ -5283,7 +5341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1929</v>
       </c>
@@ -5318,7 +5376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1838</v>
       </c>
@@ -5353,7 +5411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1908</v>
       </c>
@@ -5388,7 +5446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1838</v>
       </c>
@@ -5423,7 +5481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1838</v>
       </c>
@@ -5458,7 +5516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1838</v>
       </c>
@@ -5493,7 +5551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1838</v>
       </c>
@@ -5528,7 +5586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1838</v>
       </c>
@@ -5563,7 +5621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1838</v>
       </c>
@@ -5598,7 +5656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1838</v>
       </c>
@@ -5633,7 +5691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1838</v>
       </c>
@@ -5668,7 +5726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1838</v>
       </c>
@@ -5697,7 +5755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1965</v>
       </c>
@@ -5732,7 +5790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -5767,7 +5825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1838</v>
       </c>
@@ -5802,7 +5860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1838</v>
       </c>
@@ -5837,7 +5895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1838</v>
       </c>
@@ -5872,7 +5930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1838</v>
       </c>
@@ -5907,7 +5965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1838</v>
       </c>
@@ -5942,7 +6000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1864</v>
       </c>
@@ -5977,7 +6035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1838</v>
       </c>
@@ -6012,7 +6070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1854</v>
       </c>
@@ -6047,7 +6105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1854</v>
       </c>
@@ -6082,7 +6140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1838</v>
       </c>
@@ -6117,7 +6175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1838</v>
       </c>
@@ -6152,7 +6210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1838</v>
       </c>
@@ -6187,7 +6245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1838</v>
       </c>
@@ -6222,7 +6280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1965</v>
       </c>
@@ -6257,7 +6315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1911</v>
       </c>
@@ -6292,7 +6350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1976</v>
       </c>
@@ -6327,7 +6385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1838</v>
       </c>
@@ -6362,7 +6420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1864</v>
       </c>
@@ -6397,7 +6455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1914</v>
       </c>
@@ -6432,7 +6490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1976</v>
       </c>
@@ -6467,7 +6525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1838</v>
       </c>
@@ -6502,7 +6560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1861</v>
       </c>
@@ -6537,7 +6595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1863</v>
       </c>
@@ -6572,7 +6630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1838</v>
       </c>
@@ -6607,7 +6665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1866</v>
       </c>
@@ -6642,7 +6700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1838</v>
       </c>
@@ -6677,7 +6735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1838</v>
       </c>
@@ -6712,7 +6770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1977</v>
       </c>
@@ -6747,7 +6805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1908</v>
       </c>
@@ -6782,7 +6840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1977</v>
       </c>
@@ -6817,7 +6875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1838</v>
       </c>
@@ -6852,7 +6910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1838</v>
       </c>
@@ -6887,7 +6945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1962</v>
       </c>
@@ -6922,7 +6980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1838</v>
       </c>
@@ -6957,7 +7015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1838</v>
       </c>
@@ -6992,7 +7050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1838</v>
       </c>
@@ -7027,7 +7085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1898</v>
       </c>
@@ -7062,7 +7120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1838</v>
       </c>
@@ -7097,7 +7155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1847</v>
       </c>
@@ -7132,7 +7190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1847</v>
       </c>
@@ -7167,7 +7225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1838</v>
       </c>
@@ -7202,7 +7260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1894</v>
       </c>
@@ -7237,7 +7295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1838</v>
       </c>
@@ -7272,7 +7330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1849</v>
       </c>
@@ -7307,7 +7365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1849</v>
       </c>
@@ -7342,7 +7400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1838</v>
       </c>
@@ -7377,7 +7435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1838</v>
       </c>
@@ -7412,7 +7470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1838</v>
       </c>
@@ -7447,7 +7505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1977</v>
       </c>
@@ -7482,7 +7540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1977</v>
       </c>
@@ -7517,7 +7575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1905</v>
       </c>
@@ -7552,7 +7610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1838</v>
       </c>
@@ -7587,7 +7645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1838</v>
       </c>
@@ -7622,7 +7680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1897</v>
       </c>
@@ -7657,7 +7715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1838</v>
       </c>
@@ -7692,7 +7750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1877</v>
       </c>
@@ -7727,7 +7785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1838</v>
       </c>
@@ -7762,7 +7820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1901</v>
       </c>
@@ -7797,7 +7855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1838</v>
       </c>
@@ -7832,7 +7890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1885</v>
       </c>
@@ -7867,7 +7925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1885</v>
       </c>
@@ -7902,7 +7960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1838</v>
       </c>
@@ -7937,7 +7995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1838</v>
       </c>
@@ -7972,7 +8030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1838</v>
       </c>
@@ -8007,7 +8065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1838</v>
       </c>
@@ -8042,7 +8100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1838</v>
       </c>
@@ -8077,7 +8135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1962</v>
       </c>
@@ -8112,7 +8170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1988</v>
       </c>
@@ -8147,7 +8205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1838</v>
       </c>
@@ -8182,7 +8240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1988</v>
       </c>
@@ -8217,7 +8275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1838</v>
       </c>
@@ -8252,7 +8310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1988</v>
       </c>
@@ -8287,7 +8345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -8322,7 +8380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1964</v>
       </c>
@@ -8357,7 +8415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1838</v>
       </c>
@@ -8392,7 +8450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1838</v>
       </c>
@@ -8427,7 +8485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2002</v>
       </c>
@@ -8462,7 +8520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1838</v>
       </c>
@@ -8497,7 +8555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1838</v>
       </c>
@@ -8532,7 +8590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1838</v>
       </c>
@@ -8567,7 +8625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1838</v>
       </c>
@@ -8602,7 +8660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1838</v>
       </c>
@@ -8637,7 +8695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1838</v>
       </c>
@@ -8672,7 +8730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1838</v>
       </c>
@@ -8707,7 +8765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -8742,7 +8800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1838</v>
       </c>
@@ -8777,7 +8835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1838</v>
       </c>
@@ -8812,7 +8870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1960</v>
       </c>
@@ -8847,7 +8905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1838</v>
       </c>
@@ -8882,7 +8940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1964</v>
       </c>
@@ -8917,7 +8975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1838</v>
       </c>
@@ -8952,7 +9010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1838</v>
       </c>
@@ -8987,7 +9045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1838</v>
       </c>
@@ -9022,7 +9080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1838</v>
       </c>
@@ -9057,7 +9115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1838</v>
       </c>
@@ -9092,7 +9150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1838</v>
       </c>
@@ -9127,7 +9185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1838</v>
       </c>
@@ -9162,7 +9220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1838</v>
       </c>
@@ -9197,7 +9255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1964</v>
       </c>
@@ -9232,7 +9290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1838</v>
       </c>
@@ -9267,7 +9325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1838</v>
       </c>
@@ -9302,7 +9360,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1838</v>
       </c>
@@ -9337,7 +9395,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1992</v>
       </c>
@@ -9372,7 +9430,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1838</v>
       </c>
@@ -9407,7 +9465,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1838</v>
       </c>
@@ -9442,7 +9500,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1960</v>
       </c>
@@ -9477,7 +9535,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1850</v>
       </c>
@@ -9512,7 +9570,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1962</v>
       </c>
@@ -9547,7 +9605,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1838</v>
       </c>
@@ -9582,7 +9640,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1838</v>
       </c>
@@ -9617,7 +9675,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1886</v>
       </c>
@@ -9652,7 +9710,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1960</v>
       </c>
@@ -9687,7 +9745,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1838</v>
       </c>
@@ -9722,7 +9780,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1838</v>
       </c>
@@ -9757,7 +9815,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1902</v>
       </c>
@@ -9792,7 +9850,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1838</v>
       </c>
@@ -9827,7 +9885,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1838</v>
       </c>
@@ -9862,7 +9920,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1838</v>
       </c>
@@ -9897,7 +9955,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1838</v>
       </c>
@@ -9932,7 +9990,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1865</v>
       </c>
@@ -9967,7 +10025,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1964</v>
       </c>
@@ -10002,7 +10060,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1838</v>
       </c>
@@ -10037,7 +10095,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1964</v>
       </c>
@@ -10072,7 +10130,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1880</v>
       </c>
@@ -10107,7 +10165,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1964</v>
       </c>
@@ -10142,7 +10200,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1964</v>
       </c>
@@ -10177,7 +10235,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1838</v>
       </c>
@@ -10212,7 +10270,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1838</v>
       </c>
@@ -10247,7 +10305,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1900</v>
       </c>
@@ -10282,7 +10340,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1960</v>
       </c>
@@ -10317,7 +10375,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1965</v>
       </c>
@@ -10346,7 +10404,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1965</v>
       </c>
@@ -10381,7 +10439,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1838</v>
       </c>
@@ -10410,7 +10468,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1855</v>
       </c>
@@ -10439,7 +10497,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1838</v>
       </c>
@@ -10468,7 +10526,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1838</v>
       </c>
@@ -10497,7 +10555,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1838</v>
       </c>
@@ -10526,7 +10584,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1964</v>
       </c>
@@ -10555,7 +10613,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1838</v>
       </c>
@@ -10584,7 +10642,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1838</v>
       </c>
@@ -10613,7 +10671,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1965</v>
       </c>
@@ -10642,7 +10700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1930</v>
       </c>
@@ -10671,7 +10729,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1922</v>
       </c>
@@ -10700,7 +10758,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1871</v>
       </c>
@@ -10735,7 +10793,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1838</v>
       </c>
@@ -10764,7 +10822,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1884</v>
       </c>
@@ -10793,7 +10851,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1838</v>
       </c>
@@ -10822,7 +10880,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1842</v>
       </c>
@@ -10851,7 +10909,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1838</v>
       </c>
@@ -10886,7 +10944,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1838</v>
       </c>
@@ -10921,7 +10979,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1923</v>
       </c>
@@ -10950,7 +11008,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1849</v>
       </c>
@@ -10979,7 +11037,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1849</v>
       </c>
@@ -11008,7 +11066,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1965</v>
       </c>
@@ -11037,7 +11095,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1924</v>
       </c>
@@ -11066,7 +11124,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2006</v>
       </c>
@@ -11095,7 +11153,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1972</v>
       </c>
@@ -11130,7 +11188,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1838</v>
       </c>
@@ -11165,7 +11223,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1852</v>
       </c>
@@ -11200,7 +11258,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1916</v>
       </c>
@@ -11235,7 +11293,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1838</v>
       </c>
@@ -11270,7 +11328,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1863</v>
       </c>
@@ -11305,7 +11363,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1838</v>
       </c>
@@ -11340,7 +11398,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1838</v>
       </c>
@@ -11375,7 +11433,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1862</v>
       </c>
@@ -11410,7 +11468,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1917</v>
       </c>
@@ -11445,7 +11503,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1977</v>
       </c>
@@ -11480,7 +11538,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1977</v>
       </c>
@@ -11515,7 +11573,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1838</v>
       </c>
@@ -11550,7 +11608,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1891</v>
       </c>
@@ -11585,7 +11643,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1838</v>
       </c>
@@ -11620,7 +11678,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1838</v>
       </c>
@@ -11655,7 +11713,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1856</v>
       </c>
@@ -11690,7 +11748,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1907</v>
       </c>
@@ -11725,7 +11783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1838</v>
       </c>
@@ -11760,7 +11818,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1886</v>
       </c>
@@ -11795,7 +11853,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1838</v>
       </c>
@@ -11830,7 +11888,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1838</v>
       </c>
@@ -11865,7 +11923,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1838</v>
       </c>
@@ -11900,7 +11958,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1964</v>
       </c>
@@ -11935,7 +11993,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1910</v>
       </c>
@@ -11970,7 +12028,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1964</v>
       </c>
@@ -12005,7 +12063,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1923</v>
       </c>
@@ -12040,7 +12098,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1964</v>
       </c>
@@ -12075,7 +12133,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1964</v>
       </c>
@@ -12110,7 +12168,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1838</v>
       </c>
@@ -12145,7 +12203,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1910</v>
       </c>
@@ -12180,7 +12238,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1947</v>
       </c>
@@ -12215,7 +12273,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1947</v>
       </c>
@@ -12250,7 +12308,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1964</v>
       </c>
@@ -12285,7 +12343,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1838</v>
       </c>
@@ -12320,7 +12378,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1858</v>
       </c>
@@ -12355,7 +12413,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1862</v>
       </c>
@@ -12390,7 +12448,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1964</v>
       </c>
@@ -12425,7 +12483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1838</v>
       </c>
@@ -12460,7 +12518,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1850</v>
       </c>
@@ -12495,7 +12553,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1838</v>
       </c>
@@ -12530,7 +12588,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1838</v>
       </c>
@@ -12565,7 +12623,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1838</v>
       </c>
@@ -12600,7 +12658,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1838</v>
       </c>
@@ -12635,7 +12693,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1863</v>
       </c>
@@ -12670,7 +12728,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1838</v>
       </c>
@@ -12705,7 +12763,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1838</v>
       </c>
@@ -12740,7 +12798,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1838</v>
       </c>
@@ -12775,7 +12833,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1838</v>
       </c>
@@ -12810,7 +12868,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1838</v>
       </c>
@@ -12845,7 +12903,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1838</v>
       </c>
@@ -12880,7 +12938,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1896</v>
       </c>
@@ -12915,7 +12973,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1866</v>
       </c>
@@ -12950,7 +13008,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1964</v>
       </c>
@@ -12985,7 +13043,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1838</v>
       </c>
@@ -13020,7 +13078,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1838</v>
       </c>
@@ -13055,7 +13113,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1977</v>
       </c>
@@ -13090,7 +13148,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1838</v>
       </c>
@@ -13125,7 +13183,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1977</v>
       </c>
@@ -13160,7 +13218,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1838</v>
       </c>
@@ -13195,7 +13253,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1838</v>
       </c>
@@ -13230,7 +13288,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1977</v>
       </c>
@@ -13265,7 +13323,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -13294,7 +13352,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1838</v>
       </c>
@@ -13323,7 +13381,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1867</v>
       </c>
@@ -13352,7 +13410,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1838</v>
       </c>
@@ -13381,7 +13439,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1838</v>
       </c>
@@ -13410,7 +13468,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1917</v>
       </c>
@@ -13439,7 +13497,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1838</v>
       </c>
@@ -13474,7 +13532,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1883</v>
       </c>
@@ -13503,7 +13561,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1977</v>
       </c>
@@ -13538,7 +13596,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1838</v>
       </c>
@@ -13573,7 +13631,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1838</v>
       </c>
@@ -13602,7 +13660,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1977</v>
       </c>
@@ -13637,7 +13695,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1883</v>
       </c>
@@ -13666,7 +13724,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1977</v>
       </c>
@@ -13701,7 +13759,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1977</v>
       </c>
@@ -13730,7 +13788,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1908</v>
       </c>
@@ -13759,7 +13817,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1838</v>
       </c>
@@ -13794,7 +13852,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1838</v>
       </c>
@@ -13823,7 +13881,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1964</v>
       </c>
@@ -13852,7 +13910,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1838</v>
       </c>
@@ -13887,7 +13945,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1965</v>
       </c>
@@ -13922,7 +13980,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1867</v>
       </c>
@@ -13957,7 +14015,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1924</v>
       </c>
@@ -13986,7 +14044,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1840</v>
       </c>
@@ -14021,7 +14079,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1897</v>
       </c>
@@ -14056,7 +14114,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1964</v>
       </c>
@@ -14085,7 +14143,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1838</v>
       </c>
@@ -14120,7 +14178,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1893</v>
       </c>
@@ -14149,7 +14207,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1838</v>
       </c>
@@ -14178,7 +14236,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1838</v>
       </c>
@@ -14207,7 +14265,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1838</v>
       </c>
@@ -14236,7 +14294,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1858</v>
       </c>
@@ -14271,7 +14329,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1838</v>
       </c>
@@ -14306,7 +14364,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1960</v>
       </c>
@@ -14335,7 +14393,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2006</v>
       </c>
@@ -14364,7 +14422,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1838</v>
       </c>
@@ -14399,7 +14457,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1838</v>
       </c>
@@ -14434,7 +14492,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1924</v>
       </c>
@@ -14469,7 +14527,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1838</v>
       </c>
@@ -14504,7 +14562,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1964</v>
       </c>
@@ -14539,7 +14597,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1838</v>
       </c>
@@ -14574,7 +14632,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1896</v>
       </c>
@@ -14609,7 +14667,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1860</v>
       </c>
@@ -14644,7 +14702,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1853</v>
       </c>
@@ -14679,7 +14737,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1838</v>
       </c>
@@ -14714,7 +14772,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1892</v>
       </c>
@@ -14749,7 +14807,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1892</v>
       </c>
@@ -14784,7 +14842,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1838</v>
       </c>
@@ -14819,7 +14877,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1839</v>
       </c>
@@ -14854,7 +14912,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1838</v>
       </c>
@@ -14889,7 +14947,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1838</v>
       </c>
@@ -14924,7 +14982,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1838</v>
       </c>
@@ -14959,7 +15017,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1972</v>
       </c>
@@ -14994,7 +15052,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1964</v>
       </c>
@@ -15029,7 +15087,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1838</v>
       </c>
@@ -15064,7 +15122,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1890</v>
       </c>
@@ -15099,7 +15157,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1838</v>
       </c>
@@ -15134,7 +15192,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1891</v>
       </c>
@@ -15169,7 +15227,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1838</v>
       </c>
@@ -15204,7 +15262,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1901</v>
       </c>
@@ -15239,7 +15297,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1858</v>
       </c>
@@ -15274,7 +15332,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1845</v>
       </c>
@@ -15309,7 +15367,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1874</v>
       </c>
@@ -15344,7 +15402,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1902</v>
       </c>
@@ -15379,7 +15437,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1838</v>
       </c>
@@ -15414,7 +15472,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1838</v>
       </c>
@@ -15449,7 +15507,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1962</v>
       </c>
@@ -15484,7 +15542,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1838</v>
       </c>
@@ -15519,7 +15577,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1901</v>
       </c>
@@ -15554,7 +15612,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1901</v>
       </c>
@@ -15589,7 +15647,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1904</v>
       </c>
@@ -15624,7 +15682,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1838</v>
       </c>
@@ -15659,7 +15717,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1838</v>
       </c>
@@ -15694,7 +15752,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1964</v>
       </c>
@@ -15729,7 +15787,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1923</v>
       </c>
@@ -15764,7 +15822,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1923</v>
       </c>
@@ -15799,7 +15857,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1838</v>
       </c>
@@ -15834,7 +15892,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1901</v>
       </c>
@@ -15869,7 +15927,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1838</v>
       </c>
@@ -15904,7 +15962,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1838</v>
       </c>
@@ -15939,7 +15997,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1871</v>
       </c>
@@ -15974,7 +16032,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1869</v>
       </c>
@@ -16009,7 +16067,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1838</v>
       </c>
@@ -16044,7 +16102,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1860</v>
       </c>
@@ -16079,7 +16137,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2012</v>
       </c>
@@ -16114,7 +16172,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1838</v>
       </c>
@@ -16143,7 +16201,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1902</v>
       </c>
@@ -16178,7 +16236,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1852</v>
       </c>
@@ -16207,7 +16265,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1977</v>
       </c>
@@ -16236,7 +16294,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1977</v>
       </c>
@@ -16265,7 +16323,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1838</v>
       </c>
@@ -16294,7 +16352,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1916</v>
       </c>
@@ -16323,7 +16381,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1864</v>
       </c>
@@ -16352,7 +16410,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1838</v>
       </c>
@@ -16381,7 +16439,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1915</v>
       </c>
@@ -16410,7 +16468,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1838</v>
       </c>
@@ -16439,7 +16497,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1927</v>
       </c>
@@ -16468,7 +16526,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1862</v>
       </c>
@@ -16497,7 +16555,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1962</v>
       </c>
@@ -16526,7 +16584,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1838</v>
       </c>
@@ -16555,7 +16613,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1838</v>
       </c>
@@ -16584,7 +16642,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1964</v>
       </c>
@@ -16613,7 +16671,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1838</v>
       </c>
@@ -16642,7 +16700,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1872</v>
       </c>
@@ -16671,7 +16729,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1838</v>
       </c>
@@ -16700,7 +16758,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1884</v>
       </c>
@@ -16729,7 +16787,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1838</v>
       </c>
@@ -16758,7 +16816,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1853</v>
       </c>
@@ -16787,7 +16845,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1838</v>
       </c>
@@ -16816,7 +16874,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1905</v>
       </c>
@@ -16845,7 +16903,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1887</v>
       </c>
@@ -16874,7 +16932,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1838</v>
       </c>
@@ -16903,7 +16961,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1838</v>
       </c>
@@ -16938,7 +16996,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1869</v>
       </c>
@@ -16976,7 +17034,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1869</v>
       </c>
@@ -17014,7 +17072,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1838</v>
       </c>
@@ -17043,7 +17101,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1909</v>
       </c>
@@ -17078,7 +17136,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1884</v>
       </c>
@@ -17107,7 +17165,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1925</v>
       </c>
@@ -17142,7 +17200,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1928</v>
       </c>
@@ -17171,7 +17229,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1838</v>
       </c>
@@ -17200,7 +17258,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1976</v>
       </c>
@@ -17229,7 +17287,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1963</v>
       </c>
@@ -17258,7 +17316,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1838</v>
       </c>
@@ -17287,7 +17345,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1838</v>
       </c>
@@ -17316,7 +17374,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1838</v>
       </c>
@@ -17345,7 +17403,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1838</v>
       </c>
@@ -17374,7 +17432,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1841</v>
       </c>
@@ -17403,7 +17461,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1964</v>
       </c>
@@ -17432,7 +17490,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1976</v>
       </c>
@@ -17461,7 +17519,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1904</v>
       </c>
@@ -17496,7 +17554,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1838</v>
       </c>
@@ -17531,7 +17589,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2013</v>
       </c>
@@ -17566,7 +17624,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -17601,7 +17659,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1926</v>
       </c>
@@ -17636,7 +17694,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1904</v>
       </c>
@@ -17671,7 +17729,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1838</v>
       </c>
@@ -17706,7 +17764,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1926</v>
       </c>
@@ -17741,7 +17799,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1977</v>
       </c>
@@ -17776,7 +17834,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1854</v>
       </c>
@@ -17811,7 +17869,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1977</v>
       </c>
@@ -17846,7 +17904,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1848</v>
       </c>
@@ -17881,7 +17939,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1886</v>
       </c>
@@ -17916,7 +17974,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1886</v>
       </c>
@@ -17951,7 +18009,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1838</v>
       </c>
@@ -17986,7 +18044,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1902</v>
       </c>
@@ -18021,7 +18079,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1838</v>
       </c>
@@ -18056,7 +18114,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1838</v>
       </c>
@@ -18091,7 +18149,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1860</v>
       </c>
@@ -18126,7 +18184,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1838</v>
       </c>
@@ -18161,7 +18219,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1838</v>
       </c>
@@ -18196,7 +18254,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1929</v>
       </c>
@@ -18231,7 +18289,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1929</v>
       </c>
@@ -18266,7 +18324,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1838</v>
       </c>
@@ -18301,7 +18359,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1886</v>
       </c>
@@ -18336,7 +18394,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1863</v>
       </c>
@@ -18371,7 +18429,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1838</v>
       </c>
@@ -18406,7 +18464,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1838</v>
       </c>
@@ -18441,7 +18499,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1992</v>
       </c>
@@ -18476,7 +18534,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1851</v>
       </c>
@@ -18511,7 +18569,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1863</v>
       </c>
@@ -18546,7 +18604,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1838</v>
       </c>
@@ -18581,7 +18639,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1853</v>
       </c>
@@ -18616,7 +18674,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1869</v>
       </c>
@@ -18651,7 +18709,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1839</v>
       </c>
@@ -18686,7 +18744,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1861</v>
       </c>
@@ -18721,7 +18779,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1838</v>
       </c>
@@ -18756,7 +18814,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1866</v>
       </c>
@@ -18791,7 +18849,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1838</v>
       </c>
@@ -18826,7 +18884,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1914</v>
       </c>
@@ -18861,7 +18919,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1914</v>
       </c>
@@ -18896,7 +18954,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1864</v>
       </c>
@@ -18931,7 +18989,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1864</v>
       </c>
@@ -18966,7 +19024,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1838</v>
       </c>
@@ -19001,7 +19059,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1858</v>
       </c>
@@ -19036,7 +19094,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2018</v>
       </c>
@@ -19065,7 +19123,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2018</v>
       </c>
@@ -19100,7 +19158,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2018</v>
       </c>
@@ -19135,7 +19193,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2018</v>
       </c>
@@ -19170,7 +19228,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2018</v>
       </c>
@@ -19208,7 +19266,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2018</v>
       </c>
@@ -19246,7 +19304,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2018</v>
       </c>
@@ -19284,7 +19342,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2018</v>
       </c>
@@ -19319,7 +19377,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2018</v>
       </c>
@@ -19348,7 +19406,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2018</v>
       </c>
@@ -19383,7 +19441,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2018</v>
       </c>
@@ -19418,7 +19476,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2018</v>
       </c>
@@ -19453,7 +19511,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2018</v>
       </c>
@@ -19488,7 +19546,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2018</v>
       </c>
@@ -19523,7 +19581,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2018</v>
       </c>
@@ -19552,7 +19610,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2018</v>
       </c>
@@ -19581,7 +19639,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2018</v>
       </c>
@@ -19610,7 +19668,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2018</v>
       </c>
@@ -19645,7 +19703,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2018</v>
       </c>
@@ -19680,7 +19738,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2018</v>
       </c>
@@ -19709,7 +19767,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2018</v>
       </c>
@@ -19738,7 +19796,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2018</v>
       </c>
@@ -19767,7 +19825,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2018</v>
       </c>
@@ -19796,7 +19854,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2018</v>
       </c>
@@ -19825,7 +19883,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2018</v>
       </c>
@@ -19860,7 +19918,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2018</v>
       </c>
@@ -19889,7 +19947,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2018</v>
       </c>
@@ -19918,7 +19976,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2018</v>
       </c>
@@ -19947,7 +20005,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2018</v>
       </c>
@@ -19976,7 +20034,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2018</v>
       </c>
@@ -20005,7 +20063,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2018</v>
       </c>
@@ -20034,7 +20092,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2018</v>
       </c>
@@ -20063,7 +20121,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2018</v>
       </c>
@@ -20092,7 +20150,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2018</v>
       </c>
@@ -20127,7 +20185,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2018</v>
       </c>
@@ -20162,7 +20220,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2018</v>
       </c>
@@ -20191,7 +20249,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2018</v>
       </c>
@@ -20220,7 +20278,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2018</v>
       </c>
@@ -20249,7 +20307,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2018</v>
       </c>
@@ -20278,7 +20336,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2018</v>
       </c>
@@ -20307,7 +20365,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2018</v>
       </c>
@@ -20336,7 +20394,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2018</v>
       </c>
@@ -20365,7 +20423,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2018</v>
       </c>
@@ -20400,7 +20458,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2018</v>
       </c>
@@ -20429,7 +20487,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2018</v>
       </c>
@@ -20464,7 +20522,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2018</v>
       </c>
@@ -20499,7 +20557,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2018</v>
       </c>
@@ -20528,7 +20586,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2018</v>
       </c>
@@ -20557,7 +20615,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2018</v>
       </c>
@@ -20586,7 +20644,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2018</v>
       </c>
@@ -20621,7 +20679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2018</v>
       </c>
@@ -20656,7 +20714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2018</v>
       </c>
@@ -20691,7 +20749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2019</v>
       </c>
@@ -20720,7 +20778,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2020</v>
       </c>
@@ -20749,7 +20807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2020</v>
       </c>
@@ -20778,7 +20836,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2020</v>
       </c>
@@ -20807,7 +20865,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2020</v>
       </c>
@@ -20836,7 +20894,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2020</v>
       </c>
@@ -20865,7 +20923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2020</v>
       </c>
@@ -20894,7 +20952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2020</v>
       </c>
@@ -20923,7 +20981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2020</v>
       </c>
@@ -20952,7 +21010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2020</v>
       </c>
@@ -20981,7 +21039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2020</v>
       </c>
@@ -21010,7 +21068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2020</v>
       </c>
@@ -21039,7 +21097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2020</v>
       </c>
@@ -21068,7 +21126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2020</v>
       </c>
@@ -21097,7 +21155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2020</v>
       </c>
@@ -21126,7 +21184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2020</v>
       </c>
@@ -21155,7 +21213,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2020</v>
       </c>
@@ -21184,7 +21242,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2020</v>
       </c>
@@ -21213,7 +21271,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2020</v>
       </c>
@@ -21242,7 +21300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2020</v>
       </c>
@@ -21271,7 +21329,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2020</v>
       </c>
@@ -21300,7 +21358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2020</v>
       </c>
@@ -21329,7 +21387,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2020</v>
       </c>
@@ -21358,7 +21416,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2020</v>
       </c>
@@ -21387,7 +21445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2020</v>
       </c>
@@ -21416,7 +21474,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2020</v>
       </c>
@@ -21445,7 +21503,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2020</v>
       </c>
@@ -21474,7 +21532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2020</v>
       </c>
@@ -21503,7 +21561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2020</v>
       </c>
@@ -21532,7 +21590,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2020</v>
       </c>
@@ -21561,7 +21619,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2020</v>
       </c>
@@ -21590,7 +21648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2020</v>
       </c>
@@ -21619,7 +21677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2020</v>
       </c>
@@ -21648,7 +21706,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2020</v>
       </c>
@@ -21677,7 +21735,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2020</v>
       </c>
@@ -21706,7 +21764,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2020</v>
       </c>
@@ -21735,7 +21793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2020</v>
       </c>
@@ -21764,7 +21822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2020</v>
       </c>
@@ -21793,7 +21851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2020</v>
       </c>
@@ -21822,7 +21880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2020</v>
       </c>
@@ -21851,7 +21909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2020</v>
       </c>
@@ -21880,7 +21938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2020</v>
       </c>
@@ -21909,7 +21967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2020</v>
       </c>
@@ -21938,7 +21996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2020</v>
       </c>
@@ -21967,7 +22025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2020</v>
       </c>
@@ -21996,7 +22054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2020</v>
       </c>
@@ -22025,7 +22083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2020</v>
       </c>
@@ -22054,7 +22112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2020</v>
       </c>
@@ -22083,7 +22141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2020</v>
       </c>
@@ -22112,7 +22170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2020</v>
       </c>
@@ -22141,7 +22199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2020</v>
       </c>
@@ -22170,7 +22228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2020</v>
       </c>
@@ -22199,7 +22257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2020</v>
       </c>
@@ -22228,7 +22286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2020</v>
       </c>
@@ -22257,7 +22315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2020</v>
       </c>
@@ -22286,7 +22344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2020</v>
       </c>
@@ -22315,7 +22373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2020</v>
       </c>
@@ -22344,7 +22402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2020</v>
       </c>
@@ -22373,7 +22431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2020</v>
       </c>
@@ -22402,7 +22460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2020</v>
       </c>
@@ -22431,7 +22489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2020</v>
       </c>
@@ -22460,7 +22518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2020</v>
       </c>
@@ -22489,7 +22547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2020</v>
       </c>
@@ -22518,7 +22576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2020</v>
       </c>
@@ -22547,7 +22605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2020</v>
       </c>
@@ -22576,7 +22634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2020</v>
       </c>
@@ -22605,7 +22663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2020</v>
       </c>
@@ -22634,7 +22692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>2020</v>
       </c>
@@ -22663,7 +22721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2020</v>
       </c>
@@ -22692,7 +22750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2020</v>
       </c>
@@ -22721,7 +22779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2020</v>
       </c>
@@ -22750,7 +22808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>2020</v>
       </c>
@@ -22779,7 +22837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>2020</v>
       </c>
@@ -22808,7 +22866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>2020</v>
       </c>
@@ -22837,7 +22895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>2020</v>
       </c>
@@ -22866,7 +22924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>2020</v>
       </c>
@@ -22895,7 +22953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>2020</v>
       </c>
@@ -22924,7 +22982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2020</v>
       </c>
@@ -22953,7 +23011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>2020</v>
       </c>
@@ -22982,7 +23040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>2020</v>
       </c>
@@ -23011,7 +23069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2020</v>
       </c>
@@ -23040,7 +23098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>2020</v>
       </c>
@@ -23069,7 +23127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2020</v>
       </c>
@@ -23098,7 +23156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>2020</v>
       </c>
@@ -23127,7 +23185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>2020</v>
       </c>
@@ -23156,7 +23214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>2020</v>
       </c>
@@ -23185,7 +23243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>2020</v>
       </c>
@@ -23214,7 +23272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>2020</v>
       </c>
@@ -23243,7 +23301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>2020</v>
       </c>
@@ -23272,7 +23330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>2020</v>
       </c>
@@ -23301,7 +23359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2020</v>
       </c>
@@ -23330,7 +23388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>2020</v>
       </c>
@@ -23359,7 +23417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>2020</v>
       </c>
@@ -23388,7 +23446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>2020</v>
       </c>
@@ -23417,7 +23475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>2020</v>
       </c>
@@ -23446,7 +23504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>2020</v>
       </c>
@@ -23475,7 +23533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>2020</v>
       </c>
@@ -23504,7 +23562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>2020</v>
       </c>
@@ -23533,7 +23591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>2020</v>
       </c>
@@ -23562,7 +23620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>2020</v>
       </c>
@@ -23591,7 +23649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>2020</v>
       </c>
@@ -23620,7 +23678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>2020</v>
       </c>
@@ -23649,7 +23707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>2020</v>
       </c>
@@ -23678,7 +23736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2020</v>
       </c>
@@ -23707,7 +23765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>2020</v>
       </c>
@@ -23736,7 +23794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>2020</v>
       </c>
@@ -23765,7 +23823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>2020</v>
       </c>
@@ -23794,7 +23852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>2020</v>
       </c>
@@ -23823,7 +23881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>2020</v>
       </c>
@@ -23852,7 +23910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>2020</v>
       </c>
@@ -23881,7 +23939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>2020</v>
       </c>
@@ -23910,7 +23968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>2020</v>
       </c>
@@ -23939,7 +23997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>2020</v>
       </c>
@@ -23968,7 +24026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>2020</v>
       </c>
@@ -23997,7 +24055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>2020</v>
       </c>
@@ -24026,7 +24084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>2020</v>
       </c>
@@ -24055,7 +24113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>2020</v>
       </c>
@@ -24084,7 +24142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>2020</v>
       </c>
@@ -24113,7 +24171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>2020</v>
       </c>
@@ -24142,7 +24200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>2020</v>
       </c>
@@ -24171,7 +24229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>2020</v>
       </c>
@@ -24200,7 +24258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>2020</v>
       </c>
@@ -24229,7 +24287,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>2020</v>
       </c>
@@ -24258,7 +24316,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>2020</v>
       </c>
@@ -24287,7 +24345,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>2020</v>
       </c>
@@ -24316,7 +24374,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>2020</v>
       </c>
@@ -24345,7 +24403,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>2020</v>
       </c>
@@ -24374,7 +24432,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>2020</v>
       </c>
@@ -24403,7 +24461,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>2020</v>
       </c>
@@ -24432,7 +24490,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>2020</v>
       </c>
@@ -24461,7 +24519,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>2020</v>
       </c>
@@ -24490,7 +24548,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>2020</v>
       </c>
@@ -24519,7 +24577,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>2020</v>
       </c>
@@ -24548,7 +24606,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>2020</v>
       </c>
@@ -24577,7 +24635,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>2020</v>
       </c>
@@ -24606,7 +24664,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>2020</v>
       </c>
@@ -24635,7 +24693,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>2020</v>
       </c>
@@ -24664,7 +24722,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>2020</v>
       </c>
@@ -24693,7 +24751,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>2020</v>
       </c>
@@ -24722,7 +24780,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>2020</v>
       </c>
@@ -24751,7 +24809,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>2020</v>
       </c>
@@ -24780,7 +24838,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>2020</v>
       </c>
@@ -24809,7 +24867,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>2020</v>
       </c>
@@ -24838,7 +24896,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>2020</v>
       </c>
@@ -24867,7 +24925,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>2020</v>
       </c>
@@ -24896,7 +24954,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>2020</v>
       </c>
@@ -24925,7 +24983,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>2020</v>
       </c>
@@ -24954,7 +25012,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>2020</v>
       </c>
@@ -24983,7 +25041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>2020</v>
       </c>
@@ -25012,7 +25070,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>2020</v>
       </c>
@@ -25041,7 +25099,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>2020</v>
       </c>
@@ -25070,7 +25128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>2020</v>
       </c>
@@ -25099,7 +25157,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>2020</v>
       </c>
@@ -25128,7 +25186,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>2020</v>
       </c>
@@ -25157,7 +25215,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>2020</v>
       </c>
@@ -25186,7 +25244,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>2020</v>
       </c>
@@ -25215,7 +25273,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>2020</v>
       </c>
@@ -25244,7 +25302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>2020</v>
       </c>
@@ -25273,7 +25331,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>2020</v>
       </c>
@@ -25302,7 +25360,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>2020</v>
       </c>
@@ -25331,7 +25389,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>2020</v>
       </c>
@@ -25360,7 +25418,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>2020</v>
       </c>
@@ -25389,7 +25447,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2020</v>
       </c>
@@ -25418,7 +25476,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>2020</v>
       </c>
@@ -25447,7 +25505,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>2020</v>
       </c>
@@ -25476,7 +25534,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>2020</v>
       </c>
@@ -25505,7 +25563,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>2020</v>
       </c>
@@ -25534,7 +25592,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>2020</v>
       </c>
@@ -25563,7 +25621,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>2020</v>
       </c>
@@ -25592,7 +25650,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>2020</v>
       </c>
@@ -25621,7 +25679,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>2020</v>
       </c>
@@ -25650,7 +25708,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>2020</v>
       </c>
@@ -25679,7 +25737,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>2020</v>
       </c>
@@ -25708,7 +25766,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>2020</v>
       </c>
@@ -25737,7 +25795,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>2020</v>
       </c>
@@ -25766,7 +25824,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>2020</v>
       </c>
@@ -25795,7 +25853,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>2020</v>
       </c>
@@ -25824,7 +25882,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2020</v>
       </c>
@@ -25853,7 +25911,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>2020</v>
       </c>
@@ -25882,7 +25940,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>2020</v>
       </c>
@@ -25911,7 +25969,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>2020</v>
       </c>
@@ -25940,7 +25998,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>2020</v>
       </c>
@@ -25969,7 +26027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>2020</v>
       </c>
@@ -25998,7 +26056,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>2020</v>
       </c>
@@ -26027,7 +26085,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>2020</v>
       </c>
@@ -26056,7 +26114,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>2020</v>
       </c>
@@ -26085,7 +26143,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>2020</v>
       </c>
@@ -26114,7 +26172,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>2020</v>
       </c>
@@ -26143,7 +26201,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>2020</v>
       </c>
@@ -26172,7 +26230,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>2020</v>
       </c>
@@ -26201,7 +26259,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>2020</v>
       </c>
@@ -26230,7 +26288,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>2020</v>
       </c>
@@ -26259,7 +26317,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>2020</v>
       </c>
@@ -26288,7 +26346,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>2020</v>
       </c>
@@ -26317,7 +26375,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>2020</v>
       </c>
@@ -26346,7 +26404,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>2020</v>
       </c>
@@ -26375,7 +26433,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>2020</v>
       </c>
@@ -26404,7 +26462,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>2020</v>
       </c>
@@ -26433,7 +26491,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>2020</v>
       </c>
@@ -26462,7 +26520,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>2020</v>
       </c>
@@ -26491,7 +26549,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>2020</v>
       </c>
@@ -26520,7 +26578,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>2020</v>
       </c>
@@ -26549,7 +26607,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>2020</v>
       </c>
@@ -26578,7 +26636,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>2020</v>
       </c>
@@ -26607,7 +26665,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>2020</v>
       </c>
@@ -26636,7 +26694,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>2020</v>
       </c>
@@ -26665,7 +26723,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>2020</v>
       </c>
@@ -26694,7 +26752,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>2020</v>
       </c>
@@ -26723,7 +26781,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>2020</v>
       </c>
@@ -26752,7 +26810,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>2020</v>
       </c>
@@ -26781,7 +26839,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>2020</v>
       </c>
@@ -26810,7 +26868,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>2020</v>
       </c>
@@ -26839,7 +26897,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>2020</v>
       </c>
@@ -26868,7 +26926,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>2020</v>
       </c>
@@ -26897,7 +26955,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>2020</v>
       </c>
@@ -26926,7 +26984,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>2020</v>
       </c>
@@ -26955,7 +27013,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>2020</v>
       </c>
@@ -26984,7 +27042,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>2020</v>
       </c>
@@ -27013,7 +27071,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>2020</v>
       </c>
@@ -27042,7 +27100,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>2020</v>
       </c>
@@ -27071,7 +27129,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>2020</v>
       </c>
@@ -27100,7 +27158,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>2020</v>
       </c>
@@ -27129,7 +27187,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>2020</v>
       </c>
@@ -27158,7 +27216,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>2020</v>
       </c>
@@ -27187,7 +27245,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>2020</v>
       </c>
@@ -27216,7 +27274,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>2020</v>
       </c>
@@ -27245,7 +27303,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>2020</v>
       </c>
@@ -27274,7 +27332,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>2020</v>
       </c>
@@ -27303,7 +27361,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>2020</v>
       </c>
@@ -27332,7 +27390,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>2020</v>
       </c>
@@ -27361,7 +27419,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>2020</v>
       </c>
@@ -27390,7 +27448,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>2020</v>
       </c>
@@ -27419,7 +27477,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>2020</v>
       </c>
@@ -27448,7 +27506,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>2020</v>
       </c>
@@ -27477,7 +27535,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>2020</v>
       </c>
@@ -27506,7 +27564,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>2020</v>
       </c>
@@ -27535,7 +27593,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>2020</v>
       </c>
@@ -27564,7 +27622,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>2020</v>
       </c>
@@ -27593,7 +27651,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>2020</v>
       </c>
@@ -27622,7 +27680,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>2020</v>
       </c>
@@ -27651,7 +27709,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>2020</v>
       </c>
@@ -27680,7 +27738,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>2020</v>
       </c>
@@ -27709,7 +27767,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>2020</v>
       </c>
@@ -27738,7 +27796,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>2020</v>
       </c>
@@ -27765,6 +27823,169 @@
       </c>
       <c r="L733" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>1900</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F734" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G734" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H734" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I734" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J734" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K734" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L734" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>1900</v>
+      </c>
+      <c r="B735">
+        <v>2018</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F735" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G735" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H735" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I735" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J735" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K735" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L735" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>1900</v>
+      </c>
+      <c r="B736">
+        <v>2018</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H736" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I736" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J736" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K736" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L736" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>1900</v>
+      </c>
+      <c r="B737">
+        <v>2018</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F737" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H737" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I737" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J737" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K737" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L737" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>2019</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G738" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H738" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I738" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J738" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K738" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L738" t="s">
+        <v>1281</v>
       </c>
     </row>
   </sheetData>

--- a/inst/rawdata/locations/norway_locations.xlsx
+++ b/inst/rawdata/locations/norway_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzh\OneDrive - Folkehelseinstituttet\GitHub\fhidata\inst\rawdata\locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4ACF30-2863-4BEA-A6CC-1E25A7819ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{AD4ACF30-2863-4BEA-A6CC-1E25A7819ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B924AB9F-DCA3-4DEE-9B54-4A7375F4E329}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="-17295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="-14685" windowWidth="23535" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6271" uniqueCount="1286">
   <si>
     <t>year_start</t>
   </si>
@@ -3826,54 +3826,15 @@
     <t>Hustadvika</t>
   </si>
   <si>
-    <t>municip9999</t>
-  </si>
-  <si>
     <t>Ukjent kommune</t>
   </si>
   <si>
-    <t>county99</t>
-  </si>
-  <si>
     <t>Ukjent fylke</t>
   </si>
   <si>
-    <t>region9</t>
-  </si>
-  <si>
-    <t>Ukjent region</t>
-  </si>
-  <si>
-    <t>faregion9</t>
-  </si>
-  <si>
-    <t>municip2100</t>
-  </si>
-  <si>
-    <t>municip2111</t>
-  </si>
-  <si>
     <t>Spitsbergen</t>
   </si>
   <si>
-    <t>county21</t>
-  </si>
-  <si>
-    <t>Utenfor fastlands-Norge</t>
-  </si>
-  <si>
-    <t>region0</t>
-  </si>
-  <si>
-    <t>faregion0</t>
-  </si>
-  <si>
-    <t>municip2121</t>
-  </si>
-  <si>
-    <t>municip2131</t>
-  </si>
-  <si>
     <t>Bjørnøya</t>
   </si>
   <si>
@@ -3881,6 +3842,42 @@
   </si>
   <si>
     <t>Svalbard</t>
+  </si>
+  <si>
+    <t>missingcounty99</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>notmainlandcounty22</t>
+  </si>
+  <si>
+    <t>notmainlandcounty21</t>
+  </si>
+  <si>
+    <t>missingmunicip9999</t>
+  </si>
+  <si>
+    <t>notmainlandmunicip2111</t>
+  </si>
+  <si>
+    <t>notmainlandmunicip2121</t>
+  </si>
+  <si>
+    <t>notmainlandmunicip2131</t>
+  </si>
+  <si>
+    <t>notmainlandmunicip2100</t>
+  </si>
+  <si>
+    <t>notmainlandmunicip2200</t>
+  </si>
+  <si>
+    <t>Utenfor fastlands-Norge (Svalbard)</t>
+  </si>
+  <si>
+    <t>Utenfor fastlands-Norge (Jan Mayen)</t>
   </si>
 </sst>
 </file>
@@ -4275,16 +4272,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L738"/>
+  <dimension ref="A1:L739"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F739" sqref="F739"/>
+      <selection pane="bottomLeft" activeCell="H749" sqref="H749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27830,28 +27833,16 @@
         <v>1900</v>
       </c>
       <c r="E734" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F734" t="s">
         <v>1268</v>
       </c>
-      <c r="F734" t="s">
+      <c r="G734" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H734" t="s">
         <v>1269</v>
-      </c>
-      <c r="G734" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H734" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I734" t="s">
-        <v>1272</v>
-      </c>
-      <c r="J734" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K734" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L734" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
@@ -27862,31 +27853,19 @@
         <v>2018</v>
       </c>
       <c r="C735" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="E735" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="F735" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G735" t="s">
         <v>1277</v>
       </c>
-      <c r="G735" t="s">
-        <v>1278</v>
-      </c>
       <c r="H735" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I735" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J735" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K735" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L735" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
@@ -27897,34 +27876,22 @@
         <v>2018</v>
       </c>
       <c r="C736" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="E736" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F736" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H736" t="s">
         <v>1284</v>
       </c>
-      <c r="G736" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H736" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I736" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J736" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K736" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L736" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1900</v>
       </c>
@@ -27932,60 +27899,53 @@
         <v>2018</v>
       </c>
       <c r="C737" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F737" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H737" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>2019</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G738" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H738" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1900</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F739" t="s">
         <v>1275</v>
       </c>
-      <c r="E737" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F737" t="s">
+      <c r="G739" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H739" t="s">
         <v>1285</v>
-      </c>
-      <c r="G737" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H737" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I737" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J737" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K737" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L737" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A738">
-        <v>2019</v>
-      </c>
-      <c r="E738" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F738" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G738" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H738" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I738" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J738" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K738" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L738" t="s">
-        <v>1281</v>
       </c>
     </row>
   </sheetData>
